--- a/Assets/StaticData/Excel/Character.xlsx
+++ b/Assets/StaticData/Excel/Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frog1\ProjectRefactoring\Assets\StaticData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwaya\Project_G\Assets\StaticData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FE895D-FFF1-4FA9-B2AC-4424C8BFC66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9585A9-AE11-46B9-AF90-4F6D9E649B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-8400" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6090" yWindow="5445" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -392,18 +392,18 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -417,7 +417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -431,7 +431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>

--- a/Assets/StaticData/Excel/Character.xlsx
+++ b/Assets/StaticData/Excel/Character.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwaya\Project_G\Assets\StaticData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/58b61c0d2cb9d904/Programming/ProjectG/Project_G/Assets/StaticData/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9585A9-AE11-46B9-AF90-4F6D9E649B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{08B14994-4EB0-4030-B653-9EF3D45900FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4D747D8-01E3-4567-AA13-F95A26F5D33C}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="5445" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,31 +39,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바알</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>샘플캐릭터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알로캐스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>샘플2</t>
+    <t>maxLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alloces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asmoday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarriorKnight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BufferKnight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldKnight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000, 2001, 2002, 2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000, 2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002, 2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000, 2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skills</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,8 +139,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -389,18 +427,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5" customWidth="1"/>
-    <col min="2" max="2" width="10.75" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -411,10 +449,10 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -422,45 +460,119 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="2">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
+      <c r="C6" s="2">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/StaticData/Excel/Character.xlsx
+++ b/Assets/StaticData/Excel/Character.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/58b61c0d2cb9d904/Programming/ProjectG/Project_G/Assets/StaticData/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frog1\OneDrive\Programming\ProjectG\Project_G\Assets\StaticData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{08B14994-4EB0-4030-B653-9EF3D45900FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4D747D8-01E3-4567-AA13-F95A26F5D33C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF17EE9-F053-49AF-BC91-D31AD6FEF034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4155" yWindow="7860" windowWidth="21630" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Character" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
